--- a/altium/DCDC_CHANNEL/bom/DCDC_CHANNEL_BOM.xlsx
+++ b/altium/DCDC_CHANNEL/bom/DCDC_CHANNEL_BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t xml:space="preserve">Line #</t>
   </si>
@@ -59,31 +59,202 @@
     <t xml:space="preserve">Supplier Subtotal 1</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synchronous Buck Converter, 4.5V-18V, 5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD86120EFJ-E2</t>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC/DC DESKTOP ADAPTER 12V 60W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobTek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR9CE5000LCP-N(R6B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digi-Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1939-1237-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST LEAD BNC TO GRAB HOOK 24"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomona Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5187-C-24</t>
   </si>
   <si>
     <t xml:space="preserve">Volume Production</t>
   </si>
   <si>
-    <t xml:space="preserve">Digi-Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD86120EFJ-E2CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">Mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565-5187-C-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBL ASSY BNC PLUG-PLUG RG58 24"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bel Cinch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415-0054-024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530-415-0054-024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP, CER, 100nF ±10%, 100V, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wurth Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">885012207128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">732-12244-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP, CER, 100pF ±10%, 200V, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">885342207001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">732-12161-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC Power Jack, 48V, 6.5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tensility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54-00165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">839-54-00165CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2, J3, J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNC Receptacle, 50Ω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73100-0105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WM5524-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND, 5.6uH ±20.0%, 19.3mΩ DCR, 12A Irms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRP1038C-5R6M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRP1038C-5R6MCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heatsink, 18C/W @ Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Thermal Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS-PCB1073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS2115-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES, 270Ω ±1.00%, 125mW, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stackpole Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT270R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT270RCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3, R4, R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES, 56kΩ ±1.00%, 125mW, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT56K0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT56K0CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES, JUMP, 0Ω, 2A, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805ZT0R00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805ZT0R00CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFMR, 20mH, 1.4Ω DCR, 100:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-51687NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553-1543-ND</t>
   </si>
   <si>
     <t xml:space="preserve">TP1</t>
@@ -101,184 +272,49 @@
     <t xml:space="preserve">36-1033-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XFMR, 20mH, 1.4Ω DCR, 100:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-51687NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553-1543-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES, 1.00kΩ ±1.00%, 250mW, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stackpole Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNCP0805FTD1K00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNCP0805FTD1K00CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heatsink, 18C/W @ Natural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Thermal Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATS-PCB1073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATS2115-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND, 5.6uH ±20.0%, 19.3mΩ DCR, 12A Irms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bourns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRP1038C-5R6M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRP1038C-5R6MCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2, J3, J4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNC Receptacle, 50Ω</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73100-0105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WM5524-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC Power Jack, 48V, 6.5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tensility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54-00165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">839-54-00165CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP, 1.0uF ±10.0%, 25V, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL21B105KAFNNNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End of Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1276-1066-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC/DC DESKTOP ADAPTER 12V 60W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobTek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9CE5000LCP-N(R6B)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1939-1237-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST LEAD BNC TO GRAB HOOK 24"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pomona Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5187-C-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">565-5187-C-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBL ASSY BNC PLUG-PLUG RG58 24"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bel Cinch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">415-0054-024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">530-415-0054-024</t>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-Speed Optocoupler, 10MBd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay Lite-On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6N137S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160-1793-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Mode Buck Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI National Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM3495MTC/NOPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM3495MTC/NOPB-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmitt Trigger Inverter, TTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M74VHC1GT14DTT1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M74VHC1GT14DTT1GOSCT-ND</t>
   </si>
 </sst>
 </file>
@@ -403,7 +439,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -488,7 +524,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -504,7 +540,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.9"/>
   </cols>
@@ -548,239 +584,225 @@
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" s="4" t="n">
-        <v>2.19</v>
+        <v>18.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.19</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.25</v>
+        <v>23.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.25</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>41.52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="4" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="K6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="J7" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>2.02</v>
@@ -790,172 +812,329 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="J10" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="J11" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="D12" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="J12" s="4" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="C13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K13" s="4" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="4" t="s">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="4" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>18.43</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="D14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="D15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <v>23.99</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>23.99</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="G15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="J15" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>29.52</v>
+      <c r="F16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/altium/DCDC_CHANNEL/bom/DCDC_CHANNEL_BOM.xlsx
+++ b/altium/DCDC_CHANNEL/bom/DCDC_CHANNEL_BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
   <si>
     <t xml:space="preserve">Line #</t>
   </si>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">530-415-0054-024</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, C3</t>
+    <t xml:space="preserve">C1, C3, C5</t>
   </si>
   <si>
     <t xml:space="preserve">CAP, CER, 100nF ±10%, 100V, 0805</t>
@@ -143,6 +143,21 @@
     <t xml:space="preserve">732-12161-1-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP, CER, 1μF ±10%, 50V, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL21B105KBFNFNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1276-2928-1-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">J1</t>
   </si>
   <si>
@@ -203,22 +218,46 @@
     <t xml:space="preserve">ATS2115-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES, 10kΩ ±1.00%, 125mW, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stackpole Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT10K0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT10K0CT-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
     <t xml:space="preserve">RES, 270Ω ±1.00%, 125mW, 0805</t>
   </si>
   <si>
-    <t xml:space="preserve">Stackpole Electronics</t>
-  </si>
-  <si>
     <t xml:space="preserve">RMCF0805FT270R</t>
   </si>
   <si>
     <t xml:space="preserve">RMCF0805FT270RCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R3, R4, R5</t>
+    <t xml:space="preserve">R3, R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES, 1kΩ ±1.00%, 125mW, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT1K00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT1K00CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
   </si>
   <si>
     <t xml:space="preserve">RES, 56kΩ ±1.00%, 125mW, 0805</t>
@@ -230,18 +269,6 @@
     <t xml:space="preserve">RMCF0805FT56K0CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES, JUMP, 0Ω, 2A, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMCF0805ZT0R00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMCF0805ZT0R00CT-ND</t>
-  </si>
-  <si>
     <t xml:space="preserve">T1</t>
   </si>
   <si>
@@ -272,6 +299,21 @@
     <t xml:space="preserve">36-1033-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational Amplifier, Rail-to-Rail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSV912AIDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296-47162-1-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">U2</t>
   </si>
   <si>
@@ -315,6 +357,21 @@
   </si>
   <si>
     <t xml:space="preserve">M74VHC1GT14DTT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shunt Voltage Reference, 2.5V, 0.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS431ANTR-G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS431ANTR-G1DICT-ND</t>
   </si>
 </sst>
 </file>
@@ -524,7 +581,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -688,7 +745,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>32</v>
@@ -709,7 +766,7 @@
         <v>0.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,7 +820,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>16</v>
@@ -772,10 +829,10 @@
         <v>43</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.68</v>
+        <v>0.13</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.68</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,7 +844,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>46</v>
@@ -796,7 +853,7 @@
         <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>16</v>
@@ -805,10 +862,10 @@
         <v>48</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>2.02</v>
+        <v>0.68</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>6.06</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,7 +877,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>51</v>
@@ -829,7 +886,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>16</v>
@@ -838,10 +895,10 @@
         <v>53</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.51</v>
+        <v>2.02</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>1.51</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,7 +919,7 @@
         <v>57</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>16</v>
@@ -871,10 +928,10 @@
         <v>58</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.05</v>
+        <v>1.51</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>1.05</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,10 +961,10 @@
         <v>63</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,13 +976,13 @@
         <v>65</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>22</v>
@@ -934,31 +991,27 @@
         <v>16</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>0.27</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>22</v>
@@ -967,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>0.1</v>
@@ -979,16 +1032,16 @@
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>75</v>
@@ -1002,8 +1055,12 @@
       <c r="I14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="J14" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
@@ -1017,124 +1074,244 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="J15" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>0.81</v>
-      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="J17" s="4" t="n">
-        <v>4.45</v>
+        <v>0.25</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>4.45</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>0.44</v>
+      <c r="C19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K22" s="4" t="n">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
